--- a/biology/Botanique/Pittosporum/Pittosporum.xlsx
+++ b/biology/Botanique/Pittosporum/Pittosporum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pittosporum, en français Pittospore ou Pittosporum[1], est un genre de plantes à fleurs de la famille des Pittosporaceae, comprenant environ 200 espèces d'arbustes, dont 45 sont endémiques à la Nouvelle-Calédonie. C'est un genre très probablement issu de l'ancien supercontinent Gondwana[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pittosporum, en français Pittospore ou Pittosporum, est un genre de plantes à fleurs de la famille des Pittosporaceae, comprenant environ 200 espèces d'arbustes, dont 45 sont endémiques à la Nouvelle-Calédonie. C'est un genre très probablement issu de l'ancien supercontinent Gondwana[réf. nécessaire].
 Les espèces sont des arbres ou arbustes de 2 à 30 m de haut.
 Certaines espèces (Pittosporum tobira ou Pittosporum tenuifolium) sont cultivées pour l'ornement. Les fleurs de ces arbustes dégagent parfois une odeur de miel et de vanille.
 </t>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pittosporum se traduit par goudronneux - pittos - graine - sporum[2], une référence au liquide collant qui enveloppe les graines.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pittosporum se traduit par goudronneux - pittos - graine - sporum, une référence au liquide collant qui enveloppe les graines.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des plantes du genre Pittosporum se multiplient facilement à partir de graines, mais la germination peut être lente. En production horticole, la substance collante enrobant les graines est éliminée avant le semis, car elle agit comme un inhibiteur de germination. Les graines sont traitées pour simuler des conditions naturelles pendant six semaines afin d'améliorer les taux de germination. 
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (11 juin 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (11 juin 2021) :
 Citriobatus multiflorus A.Cunn., 1832
 Pittosporum abyssinicum Delile
 Pittosporum aliferum Tirel &amp; Veillon
@@ -860,9 +878,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De la liriodendrine, un lignane anti-arythmie, a été isolé de Pittosporum brevicalyx[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la liriodendrine, un lignane anti-arythmie, a été isolé de Pittosporum brevicalyx.
 </t>
         </is>
       </c>
@@ -891,10 +911,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pittosporum tenuifolium est l'espèce type, décrite par le botaniste allemand Joseph Gärtner en 1788, à partir des travaux du naturaliste britannique Joseph Banks[5].
-Les genres suivants sont synonymes de Pittosporum selon GBIF       (11 juin 2021)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pittosporum tenuifolium est l'espèce type, décrite par le botaniste allemand Joseph Gärtner en 1788, à partir des travaux du naturaliste britannique Joseph Banks.
+Les genres suivants sont synonymes de Pittosporum selon GBIF       (11 juin 2021) :
 Citriobatus A.Cunn. &amp; Putt.
 Cylbanida Noronha ex Tul.
 Glyaspermum Zoll. &amp; Moritzi
